--- a/Ubuntu/ansible/Ch2-net-eigrp.xlsx
+++ b/Ubuntu/ansible/Ch2-net-eigrp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\GIT\Admining\Ubuntu\ansible\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E775C-5CCD-4D08-9638-3DDD9DEEBE48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3D940-39E1-4636-9E77-73EB8AE1F91B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9279732C-2EA8-4DB7-8F8A-3682BBBD8649}"/>
+    <workbookView xWindow="1524" yWindow="1224" windowWidth="13440" windowHeight="8976" xr2:uid="{9279732C-2EA8-4DB7-8F8A-3682BBBD8649}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,63 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">access01 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t xml:space="preserve">Access switch </t>
   </si>
   <si>
-    <t xml:space="preserve">Cisco IOS 15.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethernet0/0 </t>
-  </si>
-  <si>
-    <t>172.20.1.18</t>
-  </si>
-  <si>
-    <t>access02</t>
-  </si>
-  <si>
-    <t>172.20.1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">core01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core switch </t>
-  </si>
-  <si>
-    <t>172.20.1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">core02 </t>
-  </si>
-  <si>
-    <t>172.20.1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wan01 </t>
-  </si>
-  <si>
     <t xml:space="preserve">WAN router </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco IOS–XE 16.6.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GigabitEthernet1 </t>
-  </si>
-  <si>
-    <t>172.20.1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wan02 </t>
-  </si>
-  <si>
-    <t>172.20.1.23</t>
   </si>
   <si>
     <t>SW1</t>
@@ -557,17 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83EBDE1-9E6B-4029-95B9-7B443BDF08F6}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="43.6640625" customWidth="1"/>
@@ -575,332 +524,234 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
         <v>38</v>
       </c>
     </row>
